--- a/data/combined data/combined data - 2 tables/transactions.xlsx
+++ b/data/combined data/combined data - 2 tables/transactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 2 tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE05247B-09DE-4946-A8DC-F22DFC161445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A70C81A-B260-4E28-B2B4-42578ED149AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EA95244F-7CB1-4769-A46C-1F8B49004571}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>TransactionID</t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t>Conditions</t>
+  </si>
+  <si>
+    <t>PI; OrgName; IsJob</t>
+  </si>
+  <si>
+    <t>노동당; 당대표자회_집행부; 1</t>
+  </si>
+  <si>
+    <t>노동당; 당대표자회_집행부; 0</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Rename all 대외교류국 as 225국</t>
+  </si>
+  <si>
+    <t>당대표자회_집행부 is not a job</t>
   </si>
 </sst>
 </file>
@@ -412,22 +430,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267E5828-B61D-4CC0-A86B-9A04D709C808}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" customWidth="1"/>
+    <col min="4" max="4" width="34.1796875" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +462,11 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -456,6 +478,26 @@
       </c>
       <c r="D2" t="s">
         <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
